--- a/Stimuli/block5_stim_path.xlsx
+++ b/Stimuli/block5_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>image</t>
   </si>
@@ -23,244 +23,484 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor185.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor191.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target188.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target163.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target177.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target176.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target162.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target189.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor190.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor184.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target200.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor179.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor192.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor186.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target174.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target161.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target175.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor187.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor193.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor178.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor168.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor197.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor183.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target171.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target165.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target164.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target170.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor182.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor196.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor169.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor180.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor194.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target199.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target166.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target172.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target173.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target167.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target198.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor195.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor181.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor167.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor173.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor198.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target181.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target195.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target194.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target180.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor199.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor172.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor166.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor170.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor164.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target196.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target182.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target169.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target168.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target183.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target197.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor165.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor171.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor175.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor161.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target193.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target187.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target178.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target179.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target186.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target192.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor174.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor162.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor176.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor189.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor200.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target184.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target190.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target191.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/target185.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor188.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor177.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block5/distractor163.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor378.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor344.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor350.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor387.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor393.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target361.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target375.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target349.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target348.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target374.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target360.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor392.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor386.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor351.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor345.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor379.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor353.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor347.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor390.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor384.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target389.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target376.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target362.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target363.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target377.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target388.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor385.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor391.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor346.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor352.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor356.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor342.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor395.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor381.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target398.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target373.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target367.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target366.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target400.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target372.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target399.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor380.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor394.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor343.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor357.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor341.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor355.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor369.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor382.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor396.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target358.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target364.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target370.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target371.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target365.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target359.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor397.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor383.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor368.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor354.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor340.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor327.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor333.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor332.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor326.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor330.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor324.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target329.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target328.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor325.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor331.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor335.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor321.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target338.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target339.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor334.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor322.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor336.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor337.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor323.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target323.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target337.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target336.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target322.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor339.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target334.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target321.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target335.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor338.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor328.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target331.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target325.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target324.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target330.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor329.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target326.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target332.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target333.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target327.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor359.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor365.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor371.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target383.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target397.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target340.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target354.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target368.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target369.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target355.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target341.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target396.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target382.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor370.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor364.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor358.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor372.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor366.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor400.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor399.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target394.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target380.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target357.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target343.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target342.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target356.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target381.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target395.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor398.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor367.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor373.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor377.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor363.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor388.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target391.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target385.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target352.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target346.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target347.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target353.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target384.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target390.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor389.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor362.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor376.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor360.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor374.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor348.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target386.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target392.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target379.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target345.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target351.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target350.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target344.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target378.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target393.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/target387.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor349.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor375.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block5/distractor361.jpg</t>
   </si>
 </sst>
 </file>
@@ -609,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -662,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -694,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -702,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -742,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -790,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -838,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -886,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -934,7 +1174,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -974,7 +1214,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +1222,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -998,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1030,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1278,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1078,7 +1318,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1126,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1374,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1390,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1398,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1174,7 +1414,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1230,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1478,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1262,6 +1502,646 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
         <v>0</v>
       </c>
     </row>
